--- a/src/data/output/verified_populations/client_verified_population.xlsx
+++ b/src/data/output/verified_populations/client_verified_population.xlsx
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-12-09 22:12:23</t>
+          <t>2025-12-10 18:40:20</t>
         </is>
       </c>
     </row>
